--- a/tabular/core/cress-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/cress-ncbi-refseqs-side-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10113"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rob/Projects/virus/comparative/Circoviridae-GLUE/tabular/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/CRESS-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72B8C750-E072-0D49-843D-00198F47234E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EE3F8B-81B2-8942-9CD9-B0580AACAC3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="460" windowWidth="25600" windowHeight="16060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9980" yWindow="1580" windowWidth="36380" windowHeight="20160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="197">
   <si>
     <t>PCV-1</t>
   </si>
@@ -604,6 +604,21 @@
   </si>
   <si>
     <t>CvPo-41</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>Circoviridae</t>
+  </si>
+  <si>
+    <t>Unclassified</t>
+  </si>
+  <si>
+    <t>Unclassified-2</t>
+  </si>
+  <si>
+    <t>Unclassified-1</t>
   </si>
 </sst>
 </file>
@@ -651,18 +666,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1066,11 +1081,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1079,7 +1093,7 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1739,10 +1753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -1750,13 +1764,14 @@
     <col min="1" max="1" width="22.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="25.83203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="63" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" style="2" customWidth="1"/>
-    <col min="5" max="6" width="18.83203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="38.1640625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="2"/>
+    <col min="4" max="4" width="31.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" style="2" customWidth="1"/>
+    <col min="6" max="7" width="18.83203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="38.1640625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>154</v>
       </c>
@@ -1767,985 +1782,1114 @@
         <v>59</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="F3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="8" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="8" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="8" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="8" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="F14" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="8" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="F15" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="F16" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="F17" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="8" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="F18" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E19" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="F19" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="F20" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F21" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F21" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H21" s="12" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F22" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F22" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H22" s="12" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F23" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F23" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H23" s="12" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F24" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F24" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H24" s="12" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F25" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F25" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="G25" s="13" t="s">
+      <c r="G25" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H25" s="12" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F26" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F26" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="G26" s="13" t="s">
+      <c r="G26" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H26" s="12" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F27" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F27" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="G27" s="13" t="s">
+      <c r="G27" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H27" s="12" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F28" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F28" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="G28" s="13" t="s">
+      <c r="G28" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H28" s="12" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="F29" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F29" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="G29" s="9" t="s">
+      <c r="G29" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H29" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="F30" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F30" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H30" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E31" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="F31" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F31" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="G31" s="9" t="s">
+      <c r="G31" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H31" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E32" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="F32" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F32" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="G32" s="9" t="s">
+      <c r="G32" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H32" s="8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E33" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="F33" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F33" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="G33" s="9" t="s">
+      <c r="G33" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H33" s="8" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E34" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E34" s="9" t="s">
+      <c r="F34" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F34" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H34" s="8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="9" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="F35" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F35" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="G35" s="9" t="s">
+      <c r="G35" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H35" s="8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E36" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="F36" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F36" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="G36" s="9" t="s">
+      <c r="G36" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H36" s="8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="9" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E37" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="F37" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F37" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="G37" s="9" t="s">
+      <c r="G37" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H37" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E38" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="F38" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F38" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="G38" s="9" t="s">
+      <c r="G38" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H38" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E39" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="F39" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F39" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="G39" s="9" t="s">
+      <c r="G39" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H39" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E40" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="F40" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F40" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="G40" s="9" t="s">
+      <c r="G40" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H40" s="8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E41" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="F41" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F41" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="G41" s="9" t="s">
+      <c r="G41" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H41" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
         <v>137</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E42" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="F42" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F42" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="G42" s="9" t="s">
+      <c r="G42" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H42" s="8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E43" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="F43" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F43" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="G43" s="9" t="s">
+      <c r="G43" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H43" s="8" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>140</v>
       </c>
@@ -2755,139 +2899,158 @@
       <c r="C44" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F44" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="G44" s="2" t="s">
+      <c r="G44" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E45" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="F45" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F45" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="G45" s="9" t="s">
+      <c r="G45" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H45" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="11" t="s">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E46" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="F46" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="F46" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="G46" s="2" t="s">
+      <c r="G46" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E47" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E47" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="F47" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
+      <c r="F47" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="G47" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H47" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="C48" s="9" t="s">
+      <c r="C48" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E48" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="E48" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
+      <c r="F48" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="G48" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H48" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="8" t="s">
         <v>179</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="D49" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="G49" s="12" t="s">
+      <c r="D49" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H49" s="11" t="s">
         <v>157</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F186">
-    <sortCondition ref="D2:D186"/>
-    <sortCondition ref="E2:E186"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G157">
+    <sortCondition ref="E2:E157"/>
+    <sortCondition ref="F2:F157"/>
   </sortState>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>

--- a/tabular/core/cress-ncbi-refseqs-side-data.xlsx
+++ b/tabular/core/cress-ncbi-refseqs-side-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertgifford/Projects/virus/comparative/DNAss/CRESS-GLUE/tabular/core/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48EE3F8B-81B2-8942-9CD9-B0580AACAC3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770AB2A0-CD2D-4E44-8F3B-C9B8371AB461}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9980" yWindow="1580" windowWidth="36380" windowHeight="20160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1756,7 +1756,7 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
